--- a/src/excelhandler/student.xlsx
+++ b/src/excelhandler/student.xlsx
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/src/excelhandler/student.xlsx
+++ b/src/excelhandler/student.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10152510288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华东师范大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,6 +175,38 @@
   </si>
   <si>
     <t>2017-08-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科一批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华东师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学与软件工程学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理工类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +275,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,6 +286,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -581,7 +612,7 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +647,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -645,76 +676,82 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="4">
+        <v>101525102885136</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="Q2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>37</v>
+      <c r="V2" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="C5" s="2"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="C7" s="3"/>
     </row>
   </sheetData>
@@ -729,12 +766,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/src/excelhandler/student.xlsx
+++ b/src/excelhandler/student.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,94 @@
   </si>
   <si>
     <t>理工类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +678,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -682,7 +770,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="4">
-        <v>101525102885136</v>
+        <v>10152510288513</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
@@ -746,6 +834,74 @@
       </c>
       <c r="V2" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:22">
